--- a/biology/Microbiologie/Bacillariaceae/Bacillariaceae.xlsx
+++ b/biology/Microbiologie/Bacillariaceae/Bacillariaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Bacillariaceae sont une famille de diatomées dans la division des Bacillariophyta, la seule de la famille dans l'ordre des Bacillariales.
-Certaines espèces des genres comme Nitzchia sont trouvés dans les milieux halophiles. Par exemple, des espèces de Nitzchia ont été trouvées dans le Pan de Makgadikgadi, désert de sel inondé de manière saisonnière, dans le Botswana[3], ainsi qu'en France, dans l'estuaire de Seine[4].
+Certaines espèces des genres comme Nitzchia sont trouvés dans les milieux halophiles. Par exemple, des espèces de Nitzchia ont été trouvées dans le Pan de Makgadikgadi, désert de sel inondé de manière saisonnière, dans le Botswana, ainsi qu'en France, dans l'estuaire de Seine.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom vient du genre type Bacillaria, dérivé du latin bacillum / bacillus, baguette, diminutif de bacullus / baculum, bâton, en référence à la forme de bâtonnet de cette algue unicellulaire.
 </t>
@@ -543,9 +557,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon AlgaeBase                                           (5 mars 2018)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon AlgaeBase                                           (5 mars 2018) :
 Allonitzschia A.Mann
 Alveus I.Kaczmarska &amp; G.A.Fryxell
 Bacillaria J.F.Gmelin
@@ -570,7 +586,7 @@
 Pseudo-nitzschia H.Peragallo
 Simonsenia Lange-Bertalot
 Tryblionella W.Smith
-Selon Catalogue of Life                                   (5 mars 2018)[5] :
+Selon Catalogue of Life                                   (5 mars 2018) :
 Bacillaria
 Cylindrotheca
 Cymbellonitzschia
@@ -581,7 +597,7 @@
 Nitzschia
 Pseudo-nitzschia
 Tryblionella
-Selon ITIS      (5 mars 2018)[6] :
+Selon ITIS      (5 mars 2018) :
 Bacillaria Gmelin
 Cylindrotheca Rabenhorst
 Cymbellonitzschia Hustedt in Schmidt &amp; al
@@ -596,7 +612,7 @@
 Pseudo-nitzschia H. Peragallo in H. Peragallo &amp; M. Peragallo
 Simonsenia Lange-Bertalot
 Tryblionella W. Smith
-Selon NCBI  (5 mars 2018)[7] :
+Selon NCBI  (5 mars 2018) :
 Bacillaria
 Cylindrotheca
 Cymbellonitzschia
@@ -609,7 +625,7 @@
 Pseudo-nitzschia H. Peragallo in H. &amp; M. Peragallo, 1900: 263, 298
 Simonsenia
 Tryblionella W.Smith, 1853
-Selon World Register of Marine Species                               (5 mars 2018)[2] :
+Selon World Register of Marine Species                               (5 mars 2018) :
 Allonitzschia A. Mann, 1925
 Alveus I. Kaczmarska &amp; G.A. Fryxell, 1996
 Bacillaria J.F. Gmelin, 1788
